--- a/medicine/Enfance/Adrien_Albert_(auteur)/Adrien_Albert_(auteur).xlsx
+++ b/medicine/Enfance/Adrien_Albert_(auteur)/Adrien_Albert_(auteur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adrien Albert, né en 1977 à Nantes, est un auteur et illustrateur français de littérature jeunesse.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adrien Albert étudie le droit, puis est diplômé des Beaux-Arts[1] d'Angers, l'ESBA. « Il y étudie le dessin, la peinture, la gravure et la vidéo[2]. »
-Il s'installe ensuite à Paris, « puis devient dessinateur de presse pour le magazine Terra Economica[2] ».
-Il publie son premier ouvrage jeunesse Seigneur Lapin en 2008[2], un album illustré sans texte[1].
-Selon Le Soir en 2022 : « Adrien Albert est aux livres pour enfants ce que David Bowie était à la musique, une liberté folle au service d’un art psychédélique et tendre à la fois[3] ».
-En 2024 est publié son album jeunesse Chocotrain, qu'il écrit et illustre. Pour Télérama :  « cet album désopilant explore le champ sans limite du dévouement de deux mères-grand, pour contenter un même petit-enfant[4] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adrien Albert étudie le droit, puis est diplômé des Beaux-Arts d'Angers, l'ESBA. « Il y étudie le dessin, la peinture, la gravure et la vidéo. »
+Il s'installe ensuite à Paris, « puis devient dessinateur de presse pour le magazine Terra Economica ».
+Il publie son premier ouvrage jeunesse Seigneur Lapin en 2008, un album illustré sans texte.
+Selon Le Soir en 2022 : « Adrien Albert est aux livres pour enfants ce que David Bowie était à la musique, une liberté folle au service d’un art psychédélique et tendre à la fois ».
+En 2024 est publié son album jeunesse Chocotrain, qu'il écrit et illustre. Pour Télérama :  « cet album désopilant explore le champ sans limite du dévouement de deux mères-grand, pour contenter un même petit-enfant ».
 </t>
         </is>
       </c>
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auteur et illustrateur
-Seigneur Lapin, L’École des loisirs, 2008
+          <t>Auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Seigneur Lapin, L’École des loisirs, 2008
 Zélie et les Gazzi, L’École des loisirs, 2010
 Cousa, L’École des loisirs, 2010
 Simon sur les rails, L’École des loisirs, 2012
@@ -557,15 +576,49 @@
 Papa sur la lune, L’École des loisirs, 2015
 Train fantôme, L’École des loisirs, 2015
 Henri est en retard, L’École des loisirs, 2016
-Claude et Morino 1[5], L’École des loisirs, 2018
+Claude et Morino 1, L’École des loisirs, 2018
 L’Antarctique de Simon, L’École des loisirs, 2018
-Claude et Morino 2 – Joyeux anniversaire ![6] , L’École des loisirs, 2019[7]
+Claude et Morino 2 – Joyeux anniversaire ! , L’École des loisirs, 2019
 Notre Boucle d'or, L’École des loisirs, 2020
-Chantier Chouchou Debout[8], L’École des loisirs, 2022
-Chocotrain[4], L'École des loisirs, 2024
-Illustrateur
-Jeanne Taboni Misérazzi, Le Roi du château, L’École des loisirs, 2012
-Olivier Rolin, Le Roi des taupes[9], L’École des loisirs, 2012
+Chantier Chouchou Debout, L’École des loisirs, 2022
+Chocotrain, L'École des loisirs, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Adrien_Albert_(auteur)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adrien_Albert_(auteur)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jeanne Taboni Misérazzi, Le Roi du château, L’École des loisirs, 2012
+Olivier Rolin, Le Roi des taupes, L’École des loisirs, 2012
 Claire Fercak, Les Aventures de Louga de l’autre côté du Monde, L’École des loisirs, 2012
 Chantal Wibaux, Des amis à chaque étage, L’École des loisirs, 2013
 Guus Kuijer, Pauline ou la vraie vie, L’École des loisirs, 2013
@@ -574,35 +627,37 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Adrien_Albert_(auteur)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Adrien_Albert_(auteur)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2018 : Prix Bernard Versele[10] catégorie 1 Chouette, pour Train fantôme
-2020 : Prix Bernard Versele[10] catégorie 3 Chouettes, pour Claude et Morino
-2021 : Prix Libbylit[11] (décerné par l'IBBY) pour Notre Boucle d'Or</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2018 : Prix Bernard Versele catégorie 1 Chouette, pour Train fantôme
+2020 : Prix Bernard Versele catégorie 3 Chouettes, pour Claude et Morino
+2021 : Prix Libbylit (décerné par l'IBBY) pour Notre Boucle d'Or</t>
         </is>
       </c>
     </row>
